--- a/modelos/OBABOL4471069/OBABOL4471069_Sell in_metricas.xlsx
+++ b/modelos/OBABOL4471069/OBABOL4471069_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44803</v>
       </c>
       <c r="B2" t="n">
-        <v>122.138043053655</v>
+        <v>122.9293959381197</v>
       </c>
       <c r="C2" t="n">
-        <v>14.42323531293366</v>
+        <v>14.59529705565091</v>
       </c>
       <c r="D2" t="n">
-        <v>237.8772371487895</v>
+        <v>230.0837895906983</v>
       </c>
       <c r="E2" t="n">
         <v>84</v>
@@ -496,13 +496,13 @@
         <v>44806</v>
       </c>
       <c r="B3" t="n">
-        <v>80.47820057101526</v>
+        <v>80.47404513936016</v>
       </c>
       <c r="C3" t="n">
-        <v>-33.45010285756194</v>
+        <v>-30.01587249703984</v>
       </c>
       <c r="D3" t="n">
-        <v>189.7408152540277</v>
+        <v>194.7226582767221</v>
       </c>
       <c r="E3" t="n">
         <v>48</v>
@@ -516,13 +516,13 @@
         <v>44810</v>
       </c>
       <c r="B4" t="n">
-        <v>113.9318007511345</v>
+        <v>113.7350573409741</v>
       </c>
       <c r="C4" t="n">
-        <v>6.193015361957895</v>
+        <v>3.114650697493731</v>
       </c>
       <c r="D4" t="n">
-        <v>229.5107702733518</v>
+        <v>236.5566242226071</v>
       </c>
       <c r="E4" t="n">
         <v>204</v>
@@ -536,13 +536,13 @@
         <v>44817</v>
       </c>
       <c r="B5" t="n">
-        <v>146.6521598093838</v>
+        <v>146.6361419618443</v>
       </c>
       <c r="C5" t="n">
-        <v>36.75882140529588</v>
+        <v>28.48156116855536</v>
       </c>
       <c r="D5" t="n">
-        <v>254.3787105311168</v>
+        <v>264.7293197026316</v>
       </c>
       <c r="E5" t="n">
         <v>288</v>
@@ -556,13 +556,13 @@
         <v>44824</v>
       </c>
       <c r="B6" t="n">
-        <v>192.7946621624971</v>
+        <v>192.8225923106977</v>
       </c>
       <c r="C6" t="n">
-        <v>83.44148241187895</v>
+        <v>86.90946330113661</v>
       </c>
       <c r="D6" t="n">
-        <v>304.2904271591066</v>
+        <v>302.2075268146692</v>
       </c>
       <c r="E6" t="n">
         <v>144</v>
@@ -576,13 +576,13 @@
         <v>44831</v>
       </c>
       <c r="B7" t="n">
-        <v>188.6983129628852</v>
+        <v>188.6983131135474</v>
       </c>
       <c r="C7" t="n">
-        <v>74.79740008044868</v>
+        <v>84.77635934072737</v>
       </c>
       <c r="D7" t="n">
-        <v>292.8647225898835</v>
+        <v>300.5840246400846</v>
       </c>
       <c r="E7" t="n">
         <v>204</v>
@@ -596,13 +596,13 @@
         <v>44838</v>
       </c>
       <c r="B8" t="n">
-        <v>190.3258469734478</v>
+        <v>188.2781246026723</v>
       </c>
       <c r="C8" t="n">
-        <v>85.45449758418954</v>
+        <v>84.62574263910207</v>
       </c>
       <c r="D8" t="n">
-        <v>298.3970121203866</v>
+        <v>295.3668011467433</v>
       </c>
       <c r="E8" t="n">
         <v>192</v>
@@ -616,13 +616,13 @@
         <v>44845</v>
       </c>
       <c r="B9" t="n">
-        <v>182.9524390954962</v>
+        <v>182.8628027697862</v>
       </c>
       <c r="C9" t="n">
-        <v>75.5188270005965</v>
+        <v>76.85058127800913</v>
       </c>
       <c r="D9" t="n">
-        <v>298.4735581001913</v>
+        <v>280.1260191457627</v>
       </c>
       <c r="E9" t="n">
         <v>168</v>
@@ -636,13 +636,13 @@
         <v>44852</v>
       </c>
       <c r="B10" t="n">
-        <v>167.7165986271259</v>
+        <v>168.628224865122</v>
       </c>
       <c r="C10" t="n">
-        <v>59.81149781595687</v>
+        <v>59.9170454696531</v>
       </c>
       <c r="D10" t="n">
-        <v>274.4445397772323</v>
+        <v>271.7439405986511</v>
       </c>
       <c r="E10" t="n">
         <v>264</v>
@@ -656,13 +656,13 @@
         <v>44859</v>
       </c>
       <c r="B11" t="n">
-        <v>180.0211782508073</v>
+        <v>179.4234802903933</v>
       </c>
       <c r="C11" t="n">
-        <v>67.90182257096957</v>
+        <v>67.09647657093375</v>
       </c>
       <c r="D11" t="n">
-        <v>299.7809282492882</v>
+        <v>292.4563654515363</v>
       </c>
       <c r="E11" t="n">
         <v>276</v>
@@ -676,13 +676,13 @@
         <v>44865</v>
       </c>
       <c r="B12" t="n">
-        <v>79.99524692639523</v>
+        <v>81.57650715608381</v>
       </c>
       <c r="C12" t="n">
-        <v>-32.43867077366642</v>
+        <v>-34.15940547900303</v>
       </c>
       <c r="D12" t="n">
-        <v>188.7859919068774</v>
+        <v>190.3529251313795</v>
       </c>
       <c r="E12" t="n">
         <v>132</v>
@@ -696,13 +696,13 @@
         <v>44869</v>
       </c>
       <c r="B13" t="n">
-        <v>149.7584393502246</v>
+        <v>147.7045255096691</v>
       </c>
       <c r="C13" t="n">
-        <v>44.70810467213572</v>
+        <v>40.34764187160801</v>
       </c>
       <c r="D13" t="n">
-        <v>259.1432930117245</v>
+        <v>251.8100829751176</v>
       </c>
       <c r="E13" t="n">
         <v>72</v>
@@ -716,13 +716,13 @@
         <v>44873</v>
       </c>
       <c r="B14" t="n">
-        <v>186.4827749217601</v>
+        <v>184.8051151133237</v>
       </c>
       <c r="C14" t="n">
-        <v>88.09141735650343</v>
+        <v>88.55739253319059</v>
       </c>
       <c r="D14" t="n">
-        <v>296.9361873640549</v>
+        <v>286.4540592558362</v>
       </c>
       <c r="E14" t="n">
         <v>132</v>
@@ -736,13 +736,13 @@
         <v>44880</v>
       </c>
       <c r="B15" t="n">
-        <v>192.2718257539275</v>
+        <v>192.5639865980853</v>
       </c>
       <c r="C15" t="n">
-        <v>77.79002717521693</v>
+        <v>83.66342635504823</v>
       </c>
       <c r="D15" t="n">
-        <v>304.961509980047</v>
+        <v>300.6282993795995</v>
       </c>
       <c r="E15" t="n">
         <v>72</v>
@@ -756,13 +756,13 @@
         <v>44887</v>
       </c>
       <c r="B16" t="n">
-        <v>209.2166486797512</v>
+        <v>204.005681508387</v>
       </c>
       <c r="C16" t="n">
-        <v>100.6562399037594</v>
+        <v>89.04672032193059</v>
       </c>
       <c r="D16" t="n">
-        <v>320.2539997167181</v>
+        <v>318.7567922061552</v>
       </c>
       <c r="E16" t="n">
         <v>312</v>
@@ -776,13 +776,13 @@
         <v>44894</v>
       </c>
       <c r="B17" t="n">
-        <v>265.304890860566</v>
+        <v>261.2184510041188</v>
       </c>
       <c r="C17" t="n">
-        <v>167.4653250456145</v>
+        <v>149.2861550794689</v>
       </c>
       <c r="D17" t="n">
-        <v>373.3225668419269</v>
+        <v>374.5566883565098</v>
       </c>
       <c r="E17" t="n">
         <v>84</v>
@@ -796,13 +796,13 @@
         <v>44897</v>
       </c>
       <c r="B18" t="n">
-        <v>155.6491697539323</v>
+        <v>151.4274853459823</v>
       </c>
       <c r="C18" t="n">
-        <v>52.04844004076708</v>
+        <v>45.91931032830355</v>
       </c>
       <c r="D18" t="n">
-        <v>257.7281789281168</v>
+        <v>261.7536122946917</v>
       </c>
       <c r="E18" t="n">
         <v>48</v>
@@ -816,13 +816,13 @@
         <v>44901</v>
       </c>
       <c r="B19" t="n">
-        <v>162.236158057444</v>
+        <v>155.5260611941648</v>
       </c>
       <c r="C19" t="n">
-        <v>51.64048187951349</v>
+        <v>45.50592428763095</v>
       </c>
       <c r="D19" t="n">
-        <v>267.051227785029</v>
+        <v>277.0025162983094</v>
       </c>
       <c r="E19" t="n">
         <v>144</v>
@@ -836,13 +836,13 @@
         <v>44908</v>
       </c>
       <c r="B20" t="n">
-        <v>82.87994074885721</v>
+        <v>85.65119871643856</v>
       </c>
       <c r="C20" t="n">
-        <v>-19.82594597594548</v>
+        <v>-22.71229637941234</v>
       </c>
       <c r="D20" t="n">
-        <v>189.9012074110925</v>
+        <v>191.0193270264072</v>
       </c>
       <c r="E20" t="n">
         <v>36</v>
@@ -856,13 +856,13 @@
         <v>44915</v>
       </c>
       <c r="B21" t="n">
-        <v>42.99571177056732</v>
+        <v>43.00114666825691</v>
       </c>
       <c r="C21" t="n">
-        <v>-66.33974277026434</v>
+        <v>-74.29226862565591</v>
       </c>
       <c r="D21" t="n">
-        <v>145.0399534784769</v>
+        <v>150.3475926801501</v>
       </c>
       <c r="E21" t="n">
         <v>36</v>
@@ -876,13 +876,13 @@
         <v>44922</v>
       </c>
       <c r="B22" t="n">
-        <v>53.83003895173977</v>
+        <v>50.74500899797243</v>
       </c>
       <c r="C22" t="n">
-        <v>-55.2385882143837</v>
+        <v>-54.44370074516782</v>
       </c>
       <c r="D22" t="n">
-        <v>165.6032069902104</v>
+        <v>160.1686129201942</v>
       </c>
       <c r="E22" t="n">
         <v>120</v>
@@ -896,13 +896,13 @@
         <v>44929</v>
       </c>
       <c r="B23" t="n">
-        <v>88.61641725900742</v>
+        <v>90.0486781825791</v>
       </c>
       <c r="C23" t="n">
-        <v>-17.24686581879884</v>
+        <v>-14.48260780700812</v>
       </c>
       <c r="D23" t="n">
-        <v>195.831868481376</v>
+        <v>193.4658309410968</v>
       </c>
       <c r="E23" t="n">
         <v>228</v>
@@ -916,13 +916,13 @@
         <v>44936</v>
       </c>
       <c r="B24" t="n">
-        <v>135.4646732542934</v>
+        <v>136.8501829303681</v>
       </c>
       <c r="C24" t="n">
-        <v>33.54433951764135</v>
+        <v>26.77938286144012</v>
       </c>
       <c r="D24" t="n">
-        <v>244.6742677471918</v>
+        <v>246.2746282065783</v>
       </c>
       <c r="E24" t="n">
         <v>264</v>
@@ -936,13 +936,13 @@
         <v>44943</v>
       </c>
       <c r="B25" t="n">
-        <v>175.8721788692306</v>
+        <v>175.8900683965944</v>
       </c>
       <c r="C25" t="n">
-        <v>60.82895501619177</v>
+        <v>69.39424241997894</v>
       </c>
       <c r="D25" t="n">
-        <v>283.6091540956944</v>
+        <v>274.0113984971607</v>
       </c>
       <c r="E25" t="n">
         <v>300</v>
@@ -956,13 +956,13 @@
         <v>44957</v>
       </c>
       <c r="B26" t="n">
-        <v>216.0929821727616</v>
+        <v>215.2882673926028</v>
       </c>
       <c r="C26" t="n">
-        <v>103.060253844916</v>
+        <v>104.4726486298866</v>
       </c>
       <c r="D26" t="n">
-        <v>321.4864999679857</v>
+        <v>326.8147201529389</v>
       </c>
       <c r="E26" t="n">
         <v>12</v>
@@ -976,13 +976,13 @@
         <v>44964</v>
       </c>
       <c r="B27" t="n">
-        <v>136.9491101178595</v>
+        <v>137.7829548774327</v>
       </c>
       <c r="C27" t="n">
-        <v>22.46918314612683</v>
+        <v>19.60437311388112</v>
       </c>
       <c r="D27" t="n">
-        <v>253.8047082646978</v>
+        <v>242.6135908363951</v>
       </c>
       <c r="E27" t="n">
         <v>36</v>
@@ -996,13 +996,13 @@
         <v>44995</v>
       </c>
       <c r="B28" t="n">
-        <v>227.9721515270035</v>
+        <v>230.0456060677654</v>
       </c>
       <c r="C28" t="n">
-        <v>118.5506676182745</v>
+        <v>124.5955377674089</v>
       </c>
       <c r="D28" t="n">
-        <v>348.8325423174917</v>
+        <v>344.6065534616693</v>
       </c>
       <c r="E28" t="n">
         <v>60</v>
@@ -1016,13 +1016,13 @@
         <v>45006</v>
       </c>
       <c r="B29" t="n">
-        <v>194.1637812513899</v>
+        <v>193.608921839284</v>
       </c>
       <c r="C29" t="n">
-        <v>87.33006412878311</v>
+        <v>78.25585431278087</v>
       </c>
       <c r="D29" t="n">
-        <v>304.2659600207606</v>
+        <v>311.9981500233058</v>
       </c>
       <c r="E29" t="n">
         <v>12</v>
@@ -1036,13 +1036,13 @@
         <v>45020</v>
       </c>
       <c r="B30" t="n">
-        <v>62.30538120413802</v>
+        <v>65.7128897907622</v>
       </c>
       <c r="C30" t="n">
-        <v>-41.5082951362424</v>
+        <v>-51.95056465891815</v>
       </c>
       <c r="D30" t="n">
-        <v>176.6590170976176</v>
+        <v>167.4631143350539</v>
       </c>
       <c r="E30" t="n">
         <v>12</v>
@@ -1056,13 +1056,13 @@
         <v>45030</v>
       </c>
       <c r="B31" t="n">
-        <v>230.3627965517698</v>
+        <v>230.0106042841969</v>
       </c>
       <c r="C31" t="n">
-        <v>119.2874059957191</v>
+        <v>117.0602863347977</v>
       </c>
       <c r="D31" t="n">
-        <v>337.9531613209347</v>
+        <v>348.6268532090596</v>
       </c>
       <c r="E31" t="n">
         <v>12</v>
@@ -1076,13 +1076,13 @@
         <v>45034</v>
       </c>
       <c r="B32" t="n">
-        <v>351.6157422408354</v>
+        <v>351.0760318812507</v>
       </c>
       <c r="C32" t="n">
-        <v>247.786787885798</v>
+        <v>232.1568467920571</v>
       </c>
       <c r="D32" t="n">
-        <v>463.8947287429044</v>
+        <v>467.7427609920507</v>
       </c>
       <c r="E32" t="n">
         <v>132</v>
@@ -1096,13 +1096,13 @@
         <v>45040</v>
       </c>
       <c r="B33" t="n">
-        <v>390.2429206704331</v>
+        <v>388.0948325933799</v>
       </c>
       <c r="C33" t="n">
-        <v>281.3664769007327</v>
+        <v>274.7369615972881</v>
       </c>
       <c r="D33" t="n">
-        <v>503.7342305985696</v>
+        <v>502.1088592126662</v>
       </c>
       <c r="E33" t="n">
         <v>324</v>
@@ -1116,13 +1116,13 @@
         <v>45051</v>
       </c>
       <c r="B34" t="n">
-        <v>317.6647832892857</v>
+        <v>318.3279605189573</v>
       </c>
       <c r="C34" t="n">
-        <v>203.5283262963355</v>
+        <v>199.6023857711</v>
       </c>
       <c r="D34" t="n">
-        <v>420.5289642659275</v>
+        <v>430.6712553842746</v>
       </c>
       <c r="E34" t="n">
         <v>24</v>
@@ -1136,13 +1136,13 @@
         <v>45055</v>
       </c>
       <c r="B35" t="n">
-        <v>260.6097279867879</v>
+        <v>261.5324120797749</v>
       </c>
       <c r="C35" t="n">
-        <v>141.7009094845413</v>
+        <v>142.0265179786716</v>
       </c>
       <c r="D35" t="n">
-        <v>377.1187784228316</v>
+        <v>375.8024256439752</v>
       </c>
       <c r="E35" t="n">
         <v>36</v>
@@ -1217,25 +1217,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>26628.64015683567</v>
+        <v>26605.48800031067</v>
       </c>
       <c r="C2" t="n">
-        <v>163.1828427158801</v>
+        <v>163.111887979726</v>
       </c>
       <c r="D2" t="n">
-        <v>135.9045488982923</v>
+        <v>135.1959245163469</v>
       </c>
       <c r="E2" t="n">
-        <v>3.806973407049742</v>
+        <v>3.796098416877427</v>
       </c>
       <c r="F2" t="n">
-        <v>2.242691036540256</v>
+        <v>2.154739278041299</v>
       </c>
       <c r="G2" t="n">
-        <v>1.029936736753899</v>
+        <v>1.024807675492094</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -1243,25 +1243,25 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>33646.53041052698</v>
+        <v>33579.866526994</v>
       </c>
       <c r="C3" t="n">
-        <v>183.4299059873471</v>
+        <v>183.2481010187936</v>
       </c>
       <c r="D3" t="n">
-        <v>163.3906314494515</v>
+        <v>162.8008177722969</v>
       </c>
       <c r="E3" t="n">
-        <v>8.603615508915658</v>
+        <v>8.586582396923754</v>
       </c>
       <c r="F3" t="n">
-        <v>12.23603263705357</v>
+        <v>12.26366502162322</v>
       </c>
       <c r="G3" t="n">
-        <v>1.287274424955966</v>
+        <v>1.283758978202628</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -1269,25 +1269,25 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>25671.8151389973</v>
+        <v>25558.88007041728</v>
       </c>
       <c r="C4" t="n">
-        <v>160.2242651379537</v>
+        <v>159.8714485779662</v>
       </c>
       <c r="D4" t="n">
-        <v>135.4240328412223</v>
+        <v>134.5433405481533</v>
       </c>
       <c r="E4" t="n">
-        <v>7.465949507256664</v>
+        <v>7.448548310600764</v>
       </c>
       <c r="F4" t="n">
-        <v>1.079978324308676</v>
+        <v>1.051451743189848</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107502805329048</v>
+        <v>1.099550424989644</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4666666666666666</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -1295,22 +1295,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>12396.79680376479</v>
+        <v>12360.02134691394</v>
       </c>
       <c r="C5" t="n">
-        <v>111.3409035519507</v>
+        <v>111.1756328829026</v>
       </c>
       <c r="D5" t="n">
-        <v>92.39076456940786</v>
+        <v>92.26996707620044</v>
       </c>
       <c r="E5" t="n">
-        <v>2.092150835254801</v>
+        <v>2.090246719174397</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4415107806316937</v>
+        <v>0.4424752091128723</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6366611016215309</v>
+        <v>0.6380033122977338</v>
       </c>
       <c r="H5" t="n">
         <v>0.64</v>

--- a/modelos/OBABOL4471069/OBABOL4471069_Sell in_metricas.xlsx
+++ b/modelos/OBABOL4471069/OBABOL4471069_Sell in_metricas.xlsx
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
       <c r="B2" t="n">
-        <v>122.9293959381197</v>
+        <v>159.3698150109911</v>
       </c>
       <c r="C2" t="n">
-        <v>14.59529705565091</v>
+        <v>44.59075534560865</v>
       </c>
       <c r="D2" t="n">
-        <v>230.0837895906983</v>
+        <v>270.0267234805433</v>
       </c>
       <c r="E2" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44796</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44806</v>
+        <v>44803</v>
       </c>
       <c r="B3" t="n">
-        <v>80.47404513936016</v>
+        <v>124.4799825801273</v>
       </c>
       <c r="C3" t="n">
-        <v>-30.01587249703984</v>
+        <v>10.83943775082346</v>
       </c>
       <c r="D3" t="n">
-        <v>194.7226582767221</v>
+        <v>230.7629490581344</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44810</v>
+        <v>44806</v>
       </c>
       <c r="B4" t="n">
-        <v>113.7350573409741</v>
+        <v>79.61391589999215</v>
       </c>
       <c r="C4" t="n">
-        <v>3.114650697493731</v>
+        <v>-21.40037776831025</v>
       </c>
       <c r="D4" t="n">
-        <v>236.5566242226071</v>
+        <v>194.8668615813241</v>
       </c>
       <c r="E4" t="n">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>44803</v>
@@ -533,199 +533,199 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
       <c r="B5" t="n">
-        <v>146.6361419618443</v>
+        <v>111.7867987251408</v>
       </c>
       <c r="C5" t="n">
-        <v>28.48156116855536</v>
+        <v>0.9856703968228777</v>
       </c>
       <c r="D5" t="n">
-        <v>264.7293197026316</v>
+        <v>226.427554279582</v>
       </c>
       <c r="E5" t="n">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
       <c r="B6" t="n">
-        <v>192.8225923106977</v>
+        <v>146.6360674322905</v>
       </c>
       <c r="C6" t="n">
-        <v>86.90946330113661</v>
+        <v>31.30341626032733</v>
       </c>
       <c r="D6" t="n">
-        <v>302.2075268146692</v>
+        <v>261.8004656463965</v>
       </c>
       <c r="E6" t="n">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
       <c r="B7" t="n">
-        <v>188.6983131135474</v>
+        <v>192.8277563545886</v>
       </c>
       <c r="C7" t="n">
-        <v>84.77635934072737</v>
+        <v>84.41658840691262</v>
       </c>
       <c r="D7" t="n">
-        <v>300.5840246400846</v>
+        <v>297.484514554982</v>
       </c>
       <c r="E7" t="n">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
       <c r="B8" t="n">
-        <v>188.2781246026723</v>
+        <v>188.698313284701</v>
       </c>
       <c r="C8" t="n">
-        <v>84.62574263910207</v>
+        <v>70.40016975624685</v>
       </c>
       <c r="D8" t="n">
-        <v>295.3668011467433</v>
+        <v>313.2011411763946</v>
       </c>
       <c r="E8" t="n">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="B9" t="n">
-        <v>182.8628027697862</v>
+        <v>190.0744485798484</v>
       </c>
       <c r="C9" t="n">
-        <v>76.85058127800913</v>
+        <v>78.80034525008541</v>
       </c>
       <c r="D9" t="n">
-        <v>280.1260191457627</v>
+        <v>305.5273227466003</v>
       </c>
       <c r="E9" t="n">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
       <c r="B10" t="n">
-        <v>168.628224865122</v>
+        <v>182.5709544324656</v>
       </c>
       <c r="C10" t="n">
-        <v>59.9170454696531</v>
+        <v>69.33614621948388</v>
       </c>
       <c r="D10" t="n">
-        <v>271.7439405986511</v>
+        <v>294.4847738604105</v>
       </c>
       <c r="E10" t="n">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B11" t="n">
-        <v>179.4234802903933</v>
+        <v>168.6296758706854</v>
       </c>
       <c r="C11" t="n">
-        <v>67.09647657093375</v>
+        <v>57.11042025871646</v>
       </c>
       <c r="D11" t="n">
-        <v>292.4563654515363</v>
+        <v>276.5744311578745</v>
       </c>
       <c r="E11" t="n">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44865</v>
+        <v>44859</v>
       </c>
       <c r="B12" t="n">
-        <v>81.57650715608381</v>
+        <v>180.2962842439148</v>
       </c>
       <c r="C12" t="n">
-        <v>-34.15940547900303</v>
+        <v>73.78310742466275</v>
       </c>
       <c r="D12" t="n">
-        <v>190.3529251313795</v>
+        <v>291.1430890119938</v>
       </c>
       <c r="E12" t="n">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B13" t="n">
-        <v>147.7045255096691</v>
+        <v>81.55233019495584</v>
       </c>
       <c r="C13" t="n">
-        <v>40.34764187160801</v>
+        <v>-30.83875498748499</v>
       </c>
       <c r="D13" t="n">
-        <v>251.8100829751176</v>
+        <v>185.2702830365845</v>
       </c>
       <c r="E13" t="n">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B14" t="n">
-        <v>184.8051151133237</v>
+        <v>147.7045253972014</v>
       </c>
       <c r="C14" t="n">
-        <v>88.55739253319059</v>
+        <v>43.53030364240592</v>
       </c>
       <c r="D14" t="n">
-        <v>286.4540592558362</v>
+        <v>247.0347873617717</v>
       </c>
       <c r="E14" t="n">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>44866</v>
@@ -733,99 +733,99 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="B15" t="n">
-        <v>192.5639865980853</v>
+        <v>184.8051150000386</v>
       </c>
       <c r="C15" t="n">
-        <v>83.66342635504823</v>
+        <v>78.14813749267201</v>
       </c>
       <c r="D15" t="n">
-        <v>300.6282993795995</v>
+        <v>283.1897112480383</v>
       </c>
       <c r="E15" t="n">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
       <c r="B16" t="n">
-        <v>204.005681508387</v>
+        <v>192.5580214855003</v>
       </c>
       <c r="C16" t="n">
-        <v>89.04672032193059</v>
+        <v>80.52011668721038</v>
       </c>
       <c r="D16" t="n">
-        <v>318.7567922061552</v>
+        <v>299.5760346250127</v>
       </c>
       <c r="E16" t="n">
-        <v>312</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
       <c r="B17" t="n">
-        <v>261.2184510041188</v>
+        <v>204.2613757043624</v>
       </c>
       <c r="C17" t="n">
-        <v>149.2861550794689</v>
+        <v>92.78515358394077</v>
       </c>
       <c r="D17" t="n">
-        <v>374.5566883565098</v>
+        <v>315.8560761710264</v>
       </c>
       <c r="E17" t="n">
-        <v>84</v>
+        <v>312</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="B18" t="n">
-        <v>151.4274853459823</v>
+        <v>261.2185862429867</v>
       </c>
       <c r="C18" t="n">
-        <v>45.91931032830355</v>
+        <v>154.5194230040205</v>
       </c>
       <c r="D18" t="n">
-        <v>261.7536122946917</v>
+        <v>369.9225840690816</v>
       </c>
       <c r="E18" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44901</v>
+        <v>44897</v>
       </c>
       <c r="B19" t="n">
-        <v>155.5260611941648</v>
+        <v>150.8242828440515</v>
       </c>
       <c r="C19" t="n">
-        <v>45.50592428763095</v>
+        <v>47.8757001629319</v>
       </c>
       <c r="D19" t="n">
-        <v>277.0025162983094</v>
+        <v>259.5614959055252</v>
       </c>
       <c r="E19" t="n">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>44894</v>
@@ -833,142 +833,142 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="B20" t="n">
-        <v>85.65119871643856</v>
+        <v>155.3034258708247</v>
       </c>
       <c r="C20" t="n">
-        <v>-22.71229637941234</v>
+        <v>36.40207970482123</v>
       </c>
       <c r="D20" t="n">
-        <v>191.0193270264072</v>
+        <v>264.3439982132607</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B21" t="n">
-        <v>43.00114666825691</v>
+        <v>85.6511987193015</v>
       </c>
       <c r="C21" t="n">
-        <v>-74.29226862565591</v>
+        <v>-17.36640684660308</v>
       </c>
       <c r="D21" t="n">
-        <v>150.3475926801501</v>
+        <v>192.5431020902785</v>
       </c>
       <c r="E21" t="n">
         <v>36</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
       <c r="B22" t="n">
-        <v>50.74500899797243</v>
+        <v>43.05812866761451</v>
       </c>
       <c r="C22" t="n">
-        <v>-54.44370074516782</v>
+        <v>-66.30315008586156</v>
       </c>
       <c r="D22" t="n">
-        <v>160.1686129201942</v>
+        <v>151.9369587812126</v>
       </c>
       <c r="E22" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
       <c r="B23" t="n">
-        <v>90.0486781825791</v>
+        <v>50.74500765768961</v>
       </c>
       <c r="C23" t="n">
-        <v>-14.48260780700812</v>
+        <v>-53.59611779179773</v>
       </c>
       <c r="D23" t="n">
-        <v>193.4658309410968</v>
+        <v>157.0465641845195</v>
       </c>
       <c r="E23" t="n">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
       <c r="B24" t="n">
-        <v>136.8501829303681</v>
+        <v>90.40905601169064</v>
       </c>
       <c r="C24" t="n">
-        <v>26.77938286144012</v>
+        <v>-14.64658368500486</v>
       </c>
       <c r="D24" t="n">
-        <v>246.2746282065783</v>
+        <v>195.2121889993762</v>
       </c>
       <c r="E24" t="n">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
       <c r="B25" t="n">
-        <v>175.8900683965944</v>
+        <v>136.7482582076931</v>
       </c>
       <c r="C25" t="n">
-        <v>69.39424241997894</v>
+        <v>26.80718637231588</v>
       </c>
       <c r="D25" t="n">
-        <v>274.0113984971607</v>
+        <v>246.9751718127353</v>
       </c>
       <c r="E25" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
       <c r="B26" t="n">
-        <v>215.2882673926028</v>
+        <v>175.8977975220704</v>
       </c>
       <c r="C26" t="n">
-        <v>104.4726486298866</v>
+        <v>66.8293821980633</v>
       </c>
       <c r="D26" t="n">
-        <v>326.8147201529389</v>
+        <v>287.7835172726569</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44950</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="27">
@@ -976,13 +976,13 @@
         <v>44964</v>
       </c>
       <c r="B27" t="n">
-        <v>137.7829548774327</v>
+        <v>171.4333367789915</v>
       </c>
       <c r="C27" t="n">
-        <v>19.60437311388112</v>
+        <v>71.31048520831844</v>
       </c>
       <c r="D27" t="n">
-        <v>242.6135908363951</v>
+        <v>280.4428754866055</v>
       </c>
       <c r="E27" t="n">
         <v>36</v>
@@ -996,13 +996,13 @@
         <v>44995</v>
       </c>
       <c r="B28" t="n">
-        <v>230.0456060677654</v>
+        <v>231.5156803220038</v>
       </c>
       <c r="C28" t="n">
-        <v>124.5955377674089</v>
+        <v>121.7204202931954</v>
       </c>
       <c r="D28" t="n">
-        <v>344.6065534616693</v>
+        <v>336.5394082931373</v>
       </c>
       <c r="E28" t="n">
         <v>60</v>
@@ -1016,13 +1016,13 @@
         <v>45006</v>
       </c>
       <c r="B29" t="n">
-        <v>193.608921839284</v>
+        <v>195.7928882740963</v>
       </c>
       <c r="C29" t="n">
-        <v>78.25585431278087</v>
+        <v>86.88551938202207</v>
       </c>
       <c r="D29" t="n">
-        <v>311.9981500233058</v>
+        <v>309.6664090808798</v>
       </c>
       <c r="E29" t="n">
         <v>12</v>
@@ -1036,13 +1036,13 @@
         <v>45020</v>
       </c>
       <c r="B30" t="n">
-        <v>65.7128897907622</v>
+        <v>65.1420499690274</v>
       </c>
       <c r="C30" t="n">
-        <v>-51.95056465891815</v>
+        <v>-41.26933586855115</v>
       </c>
       <c r="D30" t="n">
-        <v>167.4631143350539</v>
+        <v>177.3594136828427</v>
       </c>
       <c r="E30" t="n">
         <v>12</v>
@@ -1056,13 +1056,13 @@
         <v>45030</v>
       </c>
       <c r="B31" t="n">
-        <v>230.0106042841969</v>
+        <v>233.3755640707758</v>
       </c>
       <c r="C31" t="n">
-        <v>117.0602863347977</v>
+        <v>119.1167323469119</v>
       </c>
       <c r="D31" t="n">
-        <v>348.6268532090596</v>
+        <v>352.2378132455934</v>
       </c>
       <c r="E31" t="n">
         <v>12</v>
@@ -1076,13 +1076,13 @@
         <v>45034</v>
       </c>
       <c r="B32" t="n">
-        <v>351.0760318812507</v>
+        <v>357.3130376690066</v>
       </c>
       <c r="C32" t="n">
-        <v>232.1568467920571</v>
+        <v>248.4598842643775</v>
       </c>
       <c r="D32" t="n">
-        <v>467.7427609920507</v>
+        <v>472.1718165860216</v>
       </c>
       <c r="E32" t="n">
         <v>132</v>
@@ -1096,13 +1096,13 @@
         <v>45040</v>
       </c>
       <c r="B33" t="n">
-        <v>388.0948325933799</v>
+        <v>389.6170004594406</v>
       </c>
       <c r="C33" t="n">
-        <v>274.7369615972881</v>
+        <v>278.2769379543867</v>
       </c>
       <c r="D33" t="n">
-        <v>502.1088592126662</v>
+        <v>502.5937848569606</v>
       </c>
       <c r="E33" t="n">
         <v>324</v>
@@ -1116,13 +1116,13 @@
         <v>45051</v>
       </c>
       <c r="B34" t="n">
-        <v>318.3279605189573</v>
+        <v>312.8705019753227</v>
       </c>
       <c r="C34" t="n">
-        <v>199.6023857711</v>
+        <v>184.2317681350387</v>
       </c>
       <c r="D34" t="n">
-        <v>430.6712553842746</v>
+        <v>419.2540167932981</v>
       </c>
       <c r="E34" t="n">
         <v>24</v>
@@ -1136,13 +1136,13 @@
         <v>45055</v>
       </c>
       <c r="B35" t="n">
-        <v>261.5324120797749</v>
+        <v>259.4186282412251</v>
       </c>
       <c r="C35" t="n">
-        <v>142.0265179786716</v>
+        <v>141.6987979608446</v>
       </c>
       <c r="D35" t="n">
-        <v>375.8024256439752</v>
+        <v>378.8032427193815</v>
       </c>
       <c r="E35" t="n">
         <v>36</v>
@@ -1217,22 +1217,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>26605.48800031067</v>
+        <v>26033.4486988671</v>
       </c>
       <c r="C2" t="n">
-        <v>163.111887979726</v>
+        <v>161.3488416409213</v>
       </c>
       <c r="D2" t="n">
-        <v>135.1959245163469</v>
+        <v>134.1057812877143</v>
       </c>
       <c r="E2" t="n">
-        <v>3.796098416877427</v>
+        <v>3.749422627293443</v>
       </c>
       <c r="F2" t="n">
-        <v>2.154739278041299</v>
+        <v>2.142172559251073</v>
       </c>
       <c r="G2" t="n">
-        <v>1.024807675492094</v>
+        <v>1.022134859904153</v>
       </c>
       <c r="H2" t="n">
         <v>0.6</v>
@@ -1243,22 +1243,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>33579.866526994</v>
+        <v>33691.34592179612</v>
       </c>
       <c r="C3" t="n">
-        <v>183.2481010187936</v>
+        <v>183.5520251094935</v>
       </c>
       <c r="D3" t="n">
-        <v>162.8008177722969</v>
+        <v>163.1957088820681</v>
       </c>
       <c r="E3" t="n">
-        <v>8.586582396923754</v>
+        <v>8.648936309050514</v>
       </c>
       <c r="F3" t="n">
-        <v>12.26366502162322</v>
+        <v>2.142172559251073</v>
       </c>
       <c r="G3" t="n">
-        <v>1.283758978202628</v>
+        <v>1.282883739637483</v>
       </c>
       <c r="H3" t="n">
         <v>0.4</v>
@@ -1269,22 +1269,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>25558.88007041728</v>
+        <v>25861.85215176001</v>
       </c>
       <c r="C4" t="n">
-        <v>159.8714485779662</v>
+        <v>160.8162061228905</v>
       </c>
       <c r="D4" t="n">
-        <v>134.5433405481533</v>
+        <v>135.3096717211781</v>
       </c>
       <c r="E4" t="n">
-        <v>7.448548310600764</v>
+        <v>7.526521872187658</v>
       </c>
       <c r="F4" t="n">
-        <v>1.051451743189848</v>
+        <v>1.051451741627797</v>
       </c>
       <c r="G4" t="n">
-        <v>1.099550424989644</v>
+        <v>1.099659419570709</v>
       </c>
       <c r="H4" t="n">
         <v>0.5333333333333333</v>
@@ -1295,22 +1295,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>12360.02134691394</v>
+        <v>11530.51066861563</v>
       </c>
       <c r="C5" t="n">
-        <v>111.1756328829026</v>
+        <v>107.3802154431422</v>
       </c>
       <c r="D5" t="n">
-        <v>92.26996707620044</v>
+        <v>89.9968701951243</v>
       </c>
       <c r="E5" t="n">
-        <v>2.090246719174397</v>
+        <v>1.548403838938986</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4424752091128723</v>
+        <v>0.4520254964453881</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6380033122977338</v>
+        <v>0.6152375267530239</v>
       </c>
       <c r="H5" t="n">
         <v>0.64</v>

--- a/modelos/OBABOL4471069/OBABOL4471069_Sell in_metricas.xlsx
+++ b/modelos/OBABOL4471069/OBABOL4471069_Sell in_metricas.xlsx
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B2" t="n">
+        <v>124.4799825801273</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.959041701265079</v>
+      </c>
+      <c r="D2" t="n">
+        <v>235.832187851428</v>
+      </c>
+      <c r="E2" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>44796</v>
-      </c>
-      <c r="B2" t="n">
-        <v>159.3698150109911</v>
-      </c>
-      <c r="C2" t="n">
-        <v>44.59075534560865</v>
-      </c>
-      <c r="D2" t="n">
-        <v>270.0267234805433</v>
-      </c>
-      <c r="E2" t="n">
-        <v>48</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44789</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B3" t="n">
+        <v>79.61391589999215</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-33.51428783407273</v>
+      </c>
+      <c r="D3" t="n">
+        <v>187.9722511320493</v>
+      </c>
+      <c r="E3" t="n">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>44803</v>
-      </c>
-      <c r="B3" t="n">
-        <v>124.4799825801273</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.83943775082346</v>
-      </c>
-      <c r="D3" t="n">
-        <v>230.7629490581344</v>
-      </c>
-      <c r="E3" t="n">
-        <v>84</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>44796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="B4" t="n">
-        <v>79.61391589999215</v>
+        <v>111.7867987251408</v>
       </c>
       <c r="C4" t="n">
-        <v>-21.40037776831025</v>
+        <v>5.193970323899664</v>
       </c>
       <c r="D4" t="n">
-        <v>194.8668615813241</v>
+        <v>222.9154309351818</v>
       </c>
       <c r="E4" t="n">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>44803</v>
@@ -533,199 +533,199 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B5" t="n">
+        <v>146.6360674322905</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31.54346067662416</v>
+      </c>
+      <c r="D5" t="n">
+        <v>253.9322584731366</v>
+      </c>
+      <c r="E5" t="n">
+        <v>288</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>44810</v>
-      </c>
-      <c r="B5" t="n">
-        <v>111.7867987251408</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9856703968228777</v>
-      </c>
-      <c r="D5" t="n">
-        <v>226.427554279582</v>
-      </c>
-      <c r="E5" t="n">
-        <v>204</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>44803</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B6" t="n">
+        <v>192.8277563545886</v>
+      </c>
+      <c r="C6" t="n">
+        <v>82.92821730169629</v>
+      </c>
+      <c r="D6" t="n">
+        <v>302.2212064463237</v>
+      </c>
+      <c r="E6" t="n">
+        <v>144</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>44817</v>
-      </c>
-      <c r="B6" t="n">
-        <v>146.6360674322905</v>
-      </c>
-      <c r="C6" t="n">
-        <v>31.30341626032733</v>
-      </c>
-      <c r="D6" t="n">
-        <v>261.8004656463965</v>
-      </c>
-      <c r="E6" t="n">
-        <v>288</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44810</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B7" t="n">
+        <v>188.698313284701</v>
+      </c>
+      <c r="C7" t="n">
+        <v>75.70826393318825</v>
+      </c>
+      <c r="D7" t="n">
+        <v>302.5348233128677</v>
+      </c>
+      <c r="E7" t="n">
+        <v>204</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>44824</v>
-      </c>
-      <c r="B7" t="n">
-        <v>192.8277563545886</v>
-      </c>
-      <c r="C7" t="n">
-        <v>84.41658840691262</v>
-      </c>
-      <c r="D7" t="n">
-        <v>297.484514554982</v>
-      </c>
-      <c r="E7" t="n">
-        <v>144</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44817</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B8" t="n">
+        <v>190.0744485798484</v>
+      </c>
+      <c r="C8" t="n">
+        <v>80.34629608686315</v>
+      </c>
+      <c r="D8" t="n">
+        <v>293.9906477517089</v>
+      </c>
+      <c r="E8" t="n">
+        <v>192</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>44831</v>
-      </c>
-      <c r="B8" t="n">
-        <v>188.698313284701</v>
-      </c>
-      <c r="C8" t="n">
-        <v>70.40016975624685</v>
-      </c>
-      <c r="D8" t="n">
-        <v>313.2011411763946</v>
-      </c>
-      <c r="E8" t="n">
-        <v>204</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>44824</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="B9" t="n">
+        <v>182.5709544324656</v>
+      </c>
+      <c r="C9" t="n">
+        <v>66.93729250433917</v>
+      </c>
+      <c r="D9" t="n">
+        <v>289.8437954436709</v>
+      </c>
+      <c r="E9" t="n">
+        <v>168</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>44838</v>
-      </c>
-      <c r="B9" t="n">
-        <v>190.0744485798484</v>
-      </c>
-      <c r="C9" t="n">
-        <v>78.80034525008541</v>
-      </c>
-      <c r="D9" t="n">
-        <v>305.5273227466003</v>
-      </c>
-      <c r="E9" t="n">
-        <v>192</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>44831</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B10" t="n">
+        <v>168.6296758706854</v>
+      </c>
+      <c r="C10" t="n">
+        <v>57.25589511413219</v>
+      </c>
+      <c r="D10" t="n">
+        <v>273.0326621748368</v>
+      </c>
+      <c r="E10" t="n">
+        <v>264</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44845</v>
-      </c>
-      <c r="B10" t="n">
-        <v>182.5709544324656</v>
-      </c>
-      <c r="C10" t="n">
-        <v>69.33614621948388</v>
-      </c>
-      <c r="D10" t="n">
-        <v>294.4847738604105</v>
-      </c>
-      <c r="E10" t="n">
-        <v>168</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B11" t="n">
+        <v>180.2962842439148</v>
+      </c>
+      <c r="C11" t="n">
+        <v>68.71119870935527</v>
+      </c>
+      <c r="D11" t="n">
+        <v>288.2663700714286</v>
+      </c>
+      <c r="E11" t="n">
+        <v>276</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>44852</v>
-      </c>
-      <c r="B11" t="n">
-        <v>168.6296758706854</v>
-      </c>
-      <c r="C11" t="n">
-        <v>57.11042025871646</v>
-      </c>
-      <c r="D11" t="n">
-        <v>276.5744311578745</v>
-      </c>
-      <c r="E11" t="n">
-        <v>264</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44845</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B12" t="n">
+        <v>81.55233019495584</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-25.69720721014686</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.9994378491449</v>
+      </c>
+      <c r="E12" t="n">
+        <v>132</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>44859</v>
-      </c>
-      <c r="B12" t="n">
-        <v>180.2962842439148</v>
-      </c>
-      <c r="C12" t="n">
-        <v>73.78310742466275</v>
-      </c>
-      <c r="D12" t="n">
-        <v>291.1430890119938</v>
-      </c>
-      <c r="E12" t="n">
-        <v>276</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>44852</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="B13" t="n">
-        <v>81.55233019495584</v>
+        <v>147.7045253972014</v>
       </c>
       <c r="C13" t="n">
-        <v>-30.83875498748499</v>
+        <v>45.90515430277794</v>
       </c>
       <c r="D13" t="n">
-        <v>185.2702830365845</v>
+        <v>255.219591667143</v>
       </c>
       <c r="E13" t="n">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="B14" t="n">
-        <v>147.7045253972014</v>
+        <v>184.8051150000386</v>
       </c>
       <c r="C14" t="n">
-        <v>43.53030364240592</v>
+        <v>76.69179734963801</v>
       </c>
       <c r="D14" t="n">
-        <v>247.0347873617717</v>
+        <v>287.4982692647145</v>
       </c>
       <c r="E14" t="n">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>44866</v>
@@ -733,99 +733,99 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B15" t="n">
+        <v>192.5580214855003</v>
+      </c>
+      <c r="C15" t="n">
+        <v>75.26124103102278</v>
+      </c>
+      <c r="D15" t="n">
+        <v>294.1135779218412</v>
+      </c>
+      <c r="E15" t="n">
+        <v>72</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>44873</v>
-      </c>
-      <c r="B15" t="n">
-        <v>184.8051150000386</v>
-      </c>
-      <c r="C15" t="n">
-        <v>78.14813749267201</v>
-      </c>
-      <c r="D15" t="n">
-        <v>283.1897112480383</v>
-      </c>
-      <c r="E15" t="n">
-        <v>132</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>44866</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B16" t="n">
+        <v>204.2613757043624</v>
+      </c>
+      <c r="C16" t="n">
+        <v>93.12769766411559</v>
+      </c>
+      <c r="D16" t="n">
+        <v>316.9811649863845</v>
+      </c>
+      <c r="E16" t="n">
+        <v>312</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>44880</v>
-      </c>
-      <c r="B16" t="n">
-        <v>192.5580214855003</v>
-      </c>
-      <c r="C16" t="n">
-        <v>80.52011668721038</v>
-      </c>
-      <c r="D16" t="n">
-        <v>299.5760346250127</v>
-      </c>
-      <c r="E16" t="n">
-        <v>72</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>44873</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B17" t="n">
+        <v>261.2185862429867</v>
+      </c>
+      <c r="C17" t="n">
+        <v>154.2355185074533</v>
+      </c>
+      <c r="D17" t="n">
+        <v>373.1202905308039</v>
+      </c>
+      <c r="E17" t="n">
+        <v>84</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>44887</v>
-      </c>
-      <c r="B17" t="n">
-        <v>204.2613757043624</v>
-      </c>
-      <c r="C17" t="n">
-        <v>92.78515358394077</v>
-      </c>
-      <c r="D17" t="n">
-        <v>315.8560761710264</v>
-      </c>
-      <c r="E17" t="n">
-        <v>312</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>44880</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B18" t="n">
+        <v>150.8242828440515</v>
+      </c>
+      <c r="C18" t="n">
+        <v>49.51602886486556</v>
+      </c>
+      <c r="D18" t="n">
+        <v>260.6025994140689</v>
+      </c>
+      <c r="E18" t="n">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>44894</v>
-      </c>
-      <c r="B18" t="n">
-        <v>261.2185862429867</v>
-      </c>
-      <c r="C18" t="n">
-        <v>154.5194230040205</v>
-      </c>
-      <c r="D18" t="n">
-        <v>369.9225840690816</v>
-      </c>
-      <c r="E18" t="n">
-        <v>84</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>44887</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="B19" t="n">
-        <v>150.8242828440515</v>
+        <v>155.3034258708247</v>
       </c>
       <c r="C19" t="n">
-        <v>47.8757001629319</v>
+        <v>52.24322402526079</v>
       </c>
       <c r="D19" t="n">
-        <v>259.5614959055252</v>
+        <v>268.1964706888333</v>
       </c>
       <c r="E19" t="n">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>44894</v>
@@ -833,142 +833,142 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B20" t="n">
+        <v>85.6511987193015</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-20.6771445433054</v>
+      </c>
+      <c r="D20" t="n">
+        <v>192.4130854803153</v>
+      </c>
+      <c r="E20" t="n">
+        <v>36</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>44901</v>
-      </c>
-      <c r="B20" t="n">
-        <v>155.3034258708247</v>
-      </c>
-      <c r="C20" t="n">
-        <v>36.40207970482123</v>
-      </c>
-      <c r="D20" t="n">
-        <v>264.3439982132607</v>
-      </c>
-      <c r="E20" t="n">
-        <v>144</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>44894</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44908</v>
+        <v>44915</v>
       </c>
       <c r="B21" t="n">
-        <v>85.6511987193015</v>
+        <v>43.05812866761451</v>
       </c>
       <c r="C21" t="n">
-        <v>-17.36640684660308</v>
+        <v>-66.93239517900363</v>
       </c>
       <c r="D21" t="n">
-        <v>192.5431020902785</v>
+        <v>157.4713617537765</v>
       </c>
       <c r="E21" t="n">
         <v>36</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44901</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
+        <v>44922</v>
+      </c>
+      <c r="B22" t="n">
+        <v>50.74500765768961</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-62.05075600538622</v>
+      </c>
+      <c r="D22" t="n">
+        <v>159.8095540378549</v>
+      </c>
+      <c r="E22" t="n">
+        <v>120</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>44915</v>
-      </c>
-      <c r="B22" t="n">
-        <v>43.05812866761451</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-66.30315008586156</v>
-      </c>
-      <c r="D22" t="n">
-        <v>151.9369587812126</v>
-      </c>
-      <c r="E22" t="n">
-        <v>36</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>44908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90.40905601169064</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-11.72717006171082</v>
+      </c>
+      <c r="D23" t="n">
+        <v>200.9912844085612</v>
+      </c>
+      <c r="E23" t="n">
+        <v>228</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>44922</v>
-      </c>
-      <c r="B23" t="n">
-        <v>50.74500765768961</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-53.59611779179773</v>
-      </c>
-      <c r="D23" t="n">
-        <v>157.0465641845195</v>
-      </c>
-      <c r="E23" t="n">
-        <v>120</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>44915</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B24" t="n">
+        <v>136.7482582076931</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.55549993745242</v>
+      </c>
+      <c r="D24" t="n">
+        <v>241.084905038237</v>
+      </c>
+      <c r="E24" t="n">
+        <v>264</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>44929</v>
-      </c>
-      <c r="B24" t="n">
-        <v>90.40905601169064</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-14.64658368500486</v>
-      </c>
-      <c r="D24" t="n">
-        <v>195.2121889993762</v>
-      </c>
-      <c r="E24" t="n">
-        <v>228</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>44922</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B25" t="n">
+        <v>175.8977975220704</v>
+      </c>
+      <c r="C25" t="n">
+        <v>68.9827458059556</v>
+      </c>
+      <c r="D25" t="n">
+        <v>291.0021579248089</v>
+      </c>
+      <c r="E25" t="n">
+        <v>300</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>44936</v>
-      </c>
-      <c r="B25" t="n">
-        <v>136.7482582076931</v>
-      </c>
-      <c r="C25" t="n">
-        <v>26.80718637231588</v>
-      </c>
-      <c r="D25" t="n">
-        <v>246.9751718127353</v>
-      </c>
-      <c r="E25" t="n">
-        <v>264</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>44929</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44943</v>
+        <v>44957</v>
       </c>
       <c r="B26" t="n">
-        <v>175.8977975220704</v>
+        <v>215.2880689677487</v>
       </c>
       <c r="C26" t="n">
-        <v>66.8293821980633</v>
+        <v>102.8483773369212</v>
       </c>
       <c r="D26" t="n">
-        <v>287.7835172726569</v>
+        <v>321.7569406065684</v>
       </c>
       <c r="E26" t="n">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="27">
@@ -976,13 +976,13 @@
         <v>44964</v>
       </c>
       <c r="B27" t="n">
-        <v>171.4333367789915</v>
+        <v>138.2373866378781</v>
       </c>
       <c r="C27" t="n">
-        <v>71.31048520831844</v>
+        <v>30.3807058099432</v>
       </c>
       <c r="D27" t="n">
-        <v>280.4428754866055</v>
+        <v>253.9444898359907</v>
       </c>
       <c r="E27" t="n">
         <v>36</v>
@@ -996,13 +996,13 @@
         <v>44995</v>
       </c>
       <c r="B28" t="n">
-        <v>231.5156803220038</v>
+        <v>230.0455916821244</v>
       </c>
       <c r="C28" t="n">
-        <v>121.7204202931954</v>
+        <v>118.268918584091</v>
       </c>
       <c r="D28" t="n">
-        <v>336.5394082931373</v>
+        <v>342.7584033226233</v>
       </c>
       <c r="E28" t="n">
         <v>60</v>
@@ -1016,13 +1016,13 @@
         <v>45006</v>
       </c>
       <c r="B29" t="n">
-        <v>195.7928882740963</v>
+        <v>193.5998697134724</v>
       </c>
       <c r="C29" t="n">
-        <v>86.88551938202207</v>
+        <v>79.35215679316727</v>
       </c>
       <c r="D29" t="n">
-        <v>309.6664090808798</v>
+        <v>303.298336583799</v>
       </c>
       <c r="E29" t="n">
         <v>12</v>
@@ -1036,13 +1036,13 @@
         <v>45020</v>
       </c>
       <c r="B30" t="n">
-        <v>65.1420499690274</v>
+        <v>65.71317689252054</v>
       </c>
       <c r="C30" t="n">
-        <v>-41.26933586855115</v>
+        <v>-44.56050742995971</v>
       </c>
       <c r="D30" t="n">
-        <v>177.3594136828427</v>
+        <v>177.8608758064782</v>
       </c>
       <c r="E30" t="n">
         <v>12</v>
@@ -1056,13 +1056,13 @@
         <v>45030</v>
       </c>
       <c r="B31" t="n">
-        <v>233.3755640707758</v>
+        <v>230.0115999167811</v>
       </c>
       <c r="C31" t="n">
-        <v>119.1167323469119</v>
+        <v>113.6670673031364</v>
       </c>
       <c r="D31" t="n">
-        <v>352.2378132455934</v>
+        <v>350.2175695136842</v>
       </c>
       <c r="E31" t="n">
         <v>12</v>
@@ -1076,13 +1076,13 @@
         <v>45034</v>
       </c>
       <c r="B32" t="n">
-        <v>357.3130376690066</v>
+        <v>350.8093671899406</v>
       </c>
       <c r="C32" t="n">
-        <v>248.4598842643775</v>
+        <v>247.5573385926593</v>
       </c>
       <c r="D32" t="n">
-        <v>472.1718165860216</v>
+        <v>467.2693282936863</v>
       </c>
       <c r="E32" t="n">
         <v>132</v>
@@ -1096,13 +1096,13 @@
         <v>45040</v>
       </c>
       <c r="B33" t="n">
-        <v>389.6170004594406</v>
+        <v>388.0166330128121</v>
       </c>
       <c r="C33" t="n">
-        <v>278.2769379543867</v>
+        <v>275.1616193917524</v>
       </c>
       <c r="D33" t="n">
-        <v>502.5937848569606</v>
+        <v>502.1099845998618</v>
       </c>
       <c r="E33" t="n">
         <v>324</v>
@@ -1116,13 +1116,13 @@
         <v>45051</v>
       </c>
       <c r="B34" t="n">
-        <v>312.8705019753227</v>
+        <v>318.3970811792206</v>
       </c>
       <c r="C34" t="n">
-        <v>184.2317681350387</v>
+        <v>207.3392427115522</v>
       </c>
       <c r="D34" t="n">
-        <v>419.2540167932981</v>
+        <v>428.9989741683237</v>
       </c>
       <c r="E34" t="n">
         <v>24</v>
@@ -1136,13 +1136,13 @@
         <v>45055</v>
       </c>
       <c r="B35" t="n">
-        <v>259.4186282412251</v>
+        <v>261.5839287547479</v>
       </c>
       <c r="C35" t="n">
-        <v>141.6987979608446</v>
+        <v>144.7958982932171</v>
       </c>
       <c r="D35" t="n">
-        <v>378.8032427193815</v>
+        <v>381.0986267948384</v>
       </c>
       <c r="E35" t="n">
         <v>36</v>
@@ -1217,25 +1217,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>26033.4486988671</v>
+        <v>26577.71852878183</v>
       </c>
       <c r="C2" t="n">
-        <v>161.3488416409213</v>
+        <v>163.0267417596936</v>
       </c>
       <c r="D2" t="n">
-        <v>134.1057812877143</v>
+        <v>134.917079400518</v>
       </c>
       <c r="E2" t="n">
-        <v>3.749422627293443</v>
+        <v>3.79057715852633</v>
       </c>
       <c r="F2" t="n">
         <v>2.142172559251073</v>
       </c>
       <c r="G2" t="n">
-        <v>1.022134859904153</v>
+        <v>1.022220252592325</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -1243,25 +1243,25 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>33691.34592179612</v>
+        <v>33561.49825194609</v>
       </c>
       <c r="C3" t="n">
-        <v>183.5520251094935</v>
+        <v>183.1979755672701</v>
       </c>
       <c r="D3" t="n">
-        <v>163.1957088820681</v>
+        <v>162.615252905939</v>
       </c>
       <c r="E3" t="n">
-        <v>8.648936309050514</v>
+        <v>8.582929214483693</v>
       </c>
       <c r="F3" t="n">
-        <v>2.142172559251073</v>
+        <v>12.26654504913419</v>
       </c>
       <c r="G3" t="n">
-        <v>1.282883739637483</v>
+        <v>1.282034301590006</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -1269,25 +1269,25 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>25861.85215176001</v>
+        <v>25550.58120527173</v>
       </c>
       <c r="C4" t="n">
-        <v>160.8162061228905</v>
+        <v>159.8454916638931</v>
       </c>
       <c r="D4" t="n">
-        <v>135.3096717211781</v>
+        <v>134.4587830407811</v>
       </c>
       <c r="E4" t="n">
-        <v>7.526521872187658</v>
+        <v>7.446796600543212</v>
       </c>
       <c r="F4" t="n">
         <v>1.051451741627797</v>
       </c>
       <c r="G4" t="n">
-        <v>1.099659419570709</v>
+        <v>1.098781517293841</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4666666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -1295,22 +1295,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>11530.51066861563</v>
+        <v>12370.37261759802</v>
       </c>
       <c r="C5" t="n">
-        <v>107.3802154431422</v>
+        <v>111.2221768245795</v>
       </c>
       <c r="D5" t="n">
-        <v>89.9968701951243</v>
+        <v>92.28063892800083</v>
       </c>
       <c r="E5" t="n">
-        <v>1.548403838938986</v>
+        <v>2.091236418639388</v>
       </c>
       <c r="F5" t="n">
         <v>0.4520254964453881</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6152375267530239</v>
+        <v>0.6384150257464724</v>
       </c>
       <c r="H5" t="n">
         <v>0.64</v>
